--- a/simple-ha-pair.xlsx
+++ b/simple-ha-pair.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwyatt\Dropbox\Ansible\galaxy\2.simple-ha-pair\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dilcorp-my.sharepoint.com/personal/bdowd_diligent_com/Documents/Projects/Ansible Tower/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D97EC8-F837-4601-A321-372A9CF3F7FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64037CF6-0391-473C-90A6-DC74BFB860A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13490" yWindow="3120" windowWidth="28160" windowHeight="16880" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14415" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mgmt" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="lists" sheetId="11" r:id="rId9"/>
     <sheet name="original" sheetId="3" state="hidden" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -192,12 +192,6 @@
     <t>appliance</t>
   </si>
   <si>
-    <t>bigipa.example.com</t>
-  </si>
-  <si>
-    <t>bigipb.example.com</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -414,12 +408,6 @@
     <t>gateway_address</t>
   </si>
   <si>
-    <t>192.168.1.101</t>
-  </si>
-  <si>
-    <t>192.168.1.242</t>
-  </si>
-  <si>
     <t>syslog</t>
   </si>
   <si>
@@ -433,13 +421,25 @@
   </si>
   <si>
     <t>round-robin</t>
+  </si>
+  <si>
+    <t>ccielab01f501.ccielab.local</t>
+  </si>
+  <si>
+    <t>10.66.252.99</t>
+  </si>
+  <si>
+    <t>10.66.252.98</t>
+  </si>
+  <si>
+    <t>ccielab01f502.ccielab.local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +459,12 @@
       <sz val="9"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -503,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,6 +517,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,45 +800,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9C55E7-9C0C-409E-9284-9A1C8E42E981}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>53</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -844,6 +849,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -855,36 +861,36 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.875" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="12" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -970,12 +976,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1056,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1150,34 +1156,34 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1186,10 +1192,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1206,43 +1212,43 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>4094</v>
@@ -1251,15 +1257,15 @@
         <v>1.3</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1268,15 +1274,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>101</v>
@@ -1285,10 +1291,10 @@
         <v>1.2</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1305,83 +1311,83 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
       <c r="E4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1396,40 +1402,40 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
         <v>109</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1445,129 +1451,129 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
         <v>79</v>
       </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>443</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6">
         <v>443</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
         <v>79</v>
       </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>443</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
         <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1584,73 +1590,73 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1679,97 +1685,97 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
       </c>
       <c r="C2">
         <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>443</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" t="s">
         <v>120</v>
-      </c>
-      <c r="I3" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1785,32 +1791,314 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004168DDC7EDA35343ABFF263D1CC76DFA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51e6eb8dd7f48f75c2be7449093c9860">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0bb32c2c-5835-499a-8537-8e767b8c7ac2" xmlns:ns4="c032d20b-4e57-4bbf-9fb0-93e637a0e36e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4adb0f9a67aa65661b4759beb752f67" ns3:_="" ns4:_="">
+    <xsd:import namespace="0bb32c2c-5835-499a-8537-8e767b8c7ac2"/>
+    <xsd:import namespace="c032d20b-4e57-4bbf-9fb0-93e637a0e36e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0bb32c2c-5835-499a-8537-8e767b8c7ac2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c032d20b-4e57-4bbf-9fb0-93e637a0e36e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF67706-6EC8-49CA-AEF5-D49C91146710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0bb32c2c-5835-499a-8537-8e767b8c7ac2"/>
+    <ds:schemaRef ds:uri="c032d20b-4e57-4bbf-9fb0-93e637a0e36e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B967429A-CE0B-4F9C-9A5C-5F28C2D8666F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61F8FD0B-F784-4CA5-8C04-88D8564D8B42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0bb32c2c-5835-499a-8537-8e767b8c7ac2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c032d20b-4e57-4bbf-9fb0-93e637a0e36e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>